--- a/Final Project/File/University Fund.xlsx
+++ b/Final Project/File/University Fund.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194db11a44356a27/文件/GitHub/LAT/Final Project/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194db11a44356a27/文件/GitHub/LAT/Final Project/File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9F86A565-58BB-466D-9AB2-0D3B41A61DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A431A747-4D77-4205-901A-6F653E0FF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,48 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15.5"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>附件1、高等教育深耕計畫核定經費 (一般大學)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>學校代碼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>學校名稱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>核定經費</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -783,53 +742,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">【備註】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. 學校排序依教育部統計處學校代碼排序呈現。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2. 以上含深耕計畫第一部分(主冊、附冊USR、附錄弱勢協助)及
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>第二部分(全校型、特色領域研究中心)之經費。</t>
-    </r>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>經費</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>Number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fund</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -839,19 +761,12 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.5"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="13"/>
@@ -862,12 +777,6 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.5"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
@@ -891,7 +800,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -914,52 +823,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1312,829 +1203,822 @@
     <col min="3" max="3" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>78</v>
+      <c r="C2" s="3">
+        <v>28579</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>28579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>35202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>20690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="3">
+        <v>41546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="3">
+        <v>25303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
-        <v>35202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="3">
+        <v>13529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" s="3">
+        <v>16391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <v>41546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="3">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>25303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C14" s="3">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
-        <v>13529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="3">
+        <v>34190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
-        <v>16391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="3">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A17" s="2">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
-        <v>4074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="3">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4">
-        <v>5816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="3">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
-        <v>34190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C19" s="3">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
-        <v>7805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20" s="3">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A21" s="2">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4">
-        <v>5745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="3">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A22" s="2">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22" s="3">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="4">
-        <v>5163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C23" s="3">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A24" s="2">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4">
-        <v>7179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A22" s="3">
+      <c r="C24" s="3">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A25" s="2">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A26" s="2">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A27" s="2">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A28" s="2">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A29" s="2">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A30" s="2">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A23" s="3">
+      <c r="C30" s="3">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A31" s="2">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A24" s="3">
+      <c r="C31" s="3">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A32" s="2">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A25" s="3">
+      <c r="C32" s="3">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A33" s="2">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A26" s="3">
+      <c r="C33" s="3">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A34" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A27" s="3">
+      <c r="C34" s="3">
+        <v>12358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A35" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A36" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A37" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A28" s="3">
+      <c r="C37" s="3">
+        <v>13558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A38" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A29" s="3">
+      <c r="C38" s="3">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A39" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A30" s="3">
+      <c r="C39" s="3">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A40" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A41" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A42" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A31" s="3">
+      <c r="C42" s="3">
+        <v>8672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A43" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <v>16914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A44" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A45" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A46" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A47" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A32" s="3">
+      <c r="C47" s="3">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A48" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A49" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A50" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A51" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A33" s="3">
+      <c r="C51" s="3">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A52" s="4">
+        <v>1019</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A34" s="3">
+      <c r="C52" s="3">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A53" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A54" s="4">
+        <v>1021</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A55" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6774</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A35" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="4">
-        <v>12358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A36" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4">
-        <v>8290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A37" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4">
-        <v>8968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A38" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4">
-        <v>13558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A39" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>8907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A40" s="5">
-        <v>1006</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4">
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A41" s="5">
-        <v>1007</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="4">
-        <v>14820</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A43" s="5">
-        <v>1008</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="4">
-        <v>8672</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A44" s="5">
-        <v>1009</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4">
-        <v>16914</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A45" s="5">
-        <v>1010</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4">
-        <v>8377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A46" s="5">
-        <v>1011</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A47" s="5">
-        <v>1012</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4">
-        <v>6964</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A48" s="5">
-        <v>1013</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A49" s="5">
-        <v>1014</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="4">
-        <v>6854</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A50" s="5">
-        <v>1015</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>6016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A51" s="5">
-        <v>1016</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="4">
-        <v>7368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A52" s="5">
-        <v>1017</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="4">
-        <v>6632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A53" s="5">
-        <v>1019</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C55" s="3">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A56" s="4">
+        <v>1027</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="4">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A54" s="5">
-        <v>1020</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C56" s="3">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A57" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="4">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A55" s="5">
-        <v>1021</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C57" s="3">
+        <v>26740</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A58" s="4">
+        <v>1029</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A56" s="5">
-        <v>1022</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="C58" s="3">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A59" s="4">
+        <v>1033</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A57" s="5">
-        <v>1027</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C59" s="3">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A60" s="4">
+        <v>1035</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4">
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A58" s="5">
-        <v>1028</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C60" s="3">
+        <v>20226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A61" s="4">
+        <v>1039</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="4">
-        <v>26740</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A59" s="5">
-        <v>1029</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C61" s="3">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A62" s="4">
+        <v>1048</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4">
-        <v>5874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A60" s="5">
-        <v>1033</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="C62" s="3">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A63" s="4">
+        <v>1049</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4">
-        <v>5397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A61" s="5">
-        <v>1035</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C63" s="3">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A64" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4">
-        <v>20226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A62" s="5">
-        <v>1039</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C64" s="3">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A65" s="4">
+        <v>1058</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="4">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A63" s="5">
-        <v>1048</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C65" s="3">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A66" s="4">
+        <v>1067</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="4">
-        <v>6370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A64" s="5">
-        <v>1049</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C66" s="3">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A67" s="4">
+        <v>1079</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="4">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A65" s="5">
-        <v>1050</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="C67" s="3">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A68" s="4">
+        <v>1125</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="4">
-        <v>4842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A66" s="5">
-        <v>1058</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C68" s="5">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A69" s="4">
+        <v>1176</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="4">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A67" s="5">
-        <v>1067</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C69" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A70" s="4">
+        <v>1195</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="4">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A68" s="5">
-        <v>1079</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C70" s="3">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A71" s="4">
+        <v>1196</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="4">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A69" s="5">
-        <v>1125</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="C71" s="5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="6">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A70" s="5">
-        <v>1176</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A71" s="5">
-        <v>1195</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C72" s="5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A73" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="4">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A72" s="5">
-        <v>1196</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="6">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="6">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A74" s="5">
+      <c r="C73" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="117" customHeight="1">
+      <c r="A74" s="4">
         <v>3002</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="4">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="117" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A75:C75"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>